--- a/Writings/entrainment_rate_comparisons.xlsx
+++ b/Writings/entrainment_rate_comparisons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Writings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{E10EBC93-7616-489A-9D5B-C9289CFA8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4CC9950-21AC-4E52-8516-61F10C48BE9E}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{E10EBC93-7616-489A-9D5B-C9289CFA8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D65379B-8E4E-43D5-A668-BC5577FE3290}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92997596-C3D2-4652-A39F-1CAC5E00394E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92997596-C3D2-4652-A39F-1CAC5E00394E}"/>
   </bookViews>
   <sheets>
     <sheet name="NFM" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NFM!$H$1:$H$95</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">NFM!$J$2:$J$95</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">NFM!$J$2:$J$95</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">NFM!$J$2:$J$95</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Millstone!$G$2:$G$1388</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Millstone!$G$2:$G$1388</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Millstone!$G$2:$G$1388</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Millstone!$G$2:$G$1388</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Millstone!$G$2:$G$1388</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Millstone!$G$2:$G$1388</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -489,25 +493,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,7 +538,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -625,6 +629,34 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Eggs per cubic meter</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Eggs per cubic meter</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
         <cx:txPr>
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
@@ -647,6 +679,34 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Frequency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -659,7 +719,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -703,10 +763,66 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Organisms Per 15 MInute Sample</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Organisms Per 15 MInute Sample</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Frequency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -2276,8 +2392,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,8 +5554,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1500"/>
   <sheetViews>
-    <sheetView topLeftCell="D277" workbookViewId="0">
-      <selection activeCell="L890" sqref="L890"/>
+    <sheetView tabSelected="1" topLeftCell="D277" workbookViewId="0">
+      <selection activeCell="K832" sqref="K832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
